--- a/src/com/qtpselenium/xls/B suite.xlsx
+++ b/src/com/qtpselenium/xls/B suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>TCID</t>
   </si>
@@ -105,19 +105,12 @@
   </si>
   <si>
     <t>Dummy Data_B1_16</t>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -475,15 +468,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="25.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -531,18 +524,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="20.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -603,9 +596,7 @@
       <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -624,9 +615,7 @@
       <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">

--- a/src/com/qtpselenium/xls/B suite.xlsx
+++ b/src/com/qtpselenium/xls/B suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>TCID</t>
   </si>
@@ -27,9 +27,6 @@
   </si>
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>xxxxxxxxx</t>
@@ -490,15 +487,15 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -506,10 +503,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -525,7 +522,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,39 +537,39 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
@@ -582,35 +579,35 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>3</v>
@@ -620,16 +617,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>3</v>

--- a/src/com/qtpselenium/xls/B suite.xlsx
+++ b/src/com/qtpselenium/xls/B suite.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>TCID</t>
   </si>
@@ -27,6 +27,9 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
   <si>
     <t>xxxxxxxxx</t>
@@ -107,8 +110,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,11 +171,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -251,7 +249,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -286,7 +283,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -462,21 +458,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="25.42578125" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,26 +483,26 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -518,14 +514,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.140625" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="18.85546875" customWidth="1" collapsed="1"/>
@@ -535,41 +531,41 @@
     <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="13.5" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
@@ -577,37 +573,37 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>3</v>
@@ -615,18 +611,18 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>3</v>
